--- a/braceTranslate20250229.xlsx
+++ b/braceTranslate20250229.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v_jinlqi\Desktop\compare_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C13476-CE39-413C-9CCD-DC60AECBE7F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{212020D9-6A74-4199-B3BC-66226D11F0A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="1850" windowWidth="28800" windowHeight="15530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8130" yWindow="1930" windowWidth="28800" windowHeight="15530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -8581,19 +8581,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:F1092"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A834" sqref="A1:A1048576"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="30.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8613,7 +8612,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>860</v>
       </c>
@@ -8633,7 +8632,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>883</v>
       </c>
@@ -8653,7 +8652,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>884</v>
       </c>
@@ -8673,7 +8672,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>885</v>
       </c>
@@ -8693,7 +8692,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>886</v>
       </c>
@@ -8713,7 +8712,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>887</v>
       </c>
@@ -8733,7 +8732,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>888</v>
       </c>
@@ -8753,7 +8752,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>889</v>
       </c>
@@ -8773,7 +8772,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>890</v>
       </c>
@@ -8793,7 +8792,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>891</v>
       </c>
@@ -8813,7 +8812,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>892</v>
       </c>
@@ -8833,7 +8832,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>893</v>
       </c>
@@ -8853,7 +8852,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>894</v>
       </c>
@@ -8873,7 +8872,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>895</v>
       </c>
@@ -8893,7 +8892,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>896</v>
       </c>
@@ -8913,7 +8912,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>897</v>
       </c>
@@ -8933,7 +8932,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>898</v>
       </c>
@@ -8953,7 +8952,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>899</v>
       </c>
@@ -8973,7 +8972,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>900</v>
       </c>
@@ -8993,7 +8992,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>901</v>
       </c>
@@ -9013,7 +9012,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>902</v>
       </c>
@@ -9033,7 +9032,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>903</v>
       </c>
@@ -9053,7 +9052,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>904</v>
       </c>
@@ -9073,7 +9072,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>905</v>
       </c>
@@ -9093,7 +9092,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>906</v>
       </c>
@@ -9113,7 +9112,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>907</v>
       </c>
@@ -9133,7 +9132,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>908</v>
       </c>
@@ -9153,7 +9152,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>909</v>
       </c>
@@ -9173,7 +9172,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>910</v>
       </c>
@@ -9193,7 +9192,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>911</v>
       </c>
@@ -9213,7 +9212,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>912</v>
       </c>
@@ -9233,7 +9232,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>913</v>
       </c>
@@ -9253,7 +9252,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>914</v>
       </c>
@@ -9273,7 +9272,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>915</v>
       </c>
@@ -9293,7 +9292,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>916</v>
       </c>
@@ -9313,7 +9312,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>917</v>
       </c>
@@ -9333,7 +9332,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>918</v>
       </c>
@@ -9353,7 +9352,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>919</v>
       </c>
@@ -9373,7 +9372,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>920</v>
       </c>
@@ -9393,7 +9392,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>921</v>
       </c>
@@ -9413,7 +9412,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>922</v>
       </c>
@@ -9433,7 +9432,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>923</v>
       </c>
@@ -9453,7 +9452,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>924</v>
       </c>
@@ -9473,7 +9472,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>925</v>
       </c>
@@ -9493,7 +9492,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>926</v>
       </c>
@@ -9513,7 +9512,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>927</v>
       </c>
@@ -9533,7 +9532,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>928</v>
       </c>
@@ -9553,7 +9552,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>929</v>
       </c>
@@ -9573,7 +9572,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>930</v>
       </c>
@@ -9593,7 +9592,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>931</v>
       </c>
@@ -9613,7 +9612,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>932</v>
       </c>
@@ -9633,7 +9632,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>933</v>
       </c>
@@ -9653,7 +9652,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>934</v>
       </c>
@@ -9673,7 +9672,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>935</v>
       </c>
@@ -9693,7 +9692,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>936</v>
       </c>
@@ -9713,7 +9712,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>937</v>
       </c>
@@ -9733,7 +9732,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>938</v>
       </c>
@@ -9753,7 +9752,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>939</v>
       </c>
@@ -9773,7 +9772,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>940</v>
       </c>
@@ -9793,7 +9792,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>941</v>
       </c>
@@ -9813,7 +9812,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>942</v>
       </c>
@@ -9833,7 +9832,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>943</v>
       </c>
@@ -9853,7 +9852,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>944</v>
       </c>
@@ -9873,7 +9872,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>945</v>
       </c>
@@ -9893,7 +9892,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>946</v>
       </c>
@@ -9913,7 +9912,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>947</v>
       </c>
@@ -9933,7 +9932,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>948</v>
       </c>
@@ -9953,7 +9952,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>949</v>
       </c>
@@ -9973,7 +9972,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>950</v>
       </c>
@@ -9993,7 +9992,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>951</v>
       </c>
@@ -10013,7 +10012,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>952</v>
       </c>
@@ -10033,7 +10032,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>953</v>
       </c>
@@ -10053,7 +10052,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>954</v>
       </c>
@@ -10073,7 +10072,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>955</v>
       </c>
@@ -10093,7 +10092,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>956</v>
       </c>
@@ -10113,7 +10112,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>957</v>
       </c>
@@ -10133,7 +10132,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>958</v>
       </c>
@@ -10153,7 +10152,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>959</v>
       </c>
@@ -10173,7 +10172,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>960</v>
       </c>
@@ -10193,7 +10192,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>961</v>
       </c>
@@ -10213,7 +10212,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>962</v>
       </c>
@@ -10233,7 +10232,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>963</v>
       </c>
@@ -10253,7 +10252,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>964</v>
       </c>
@@ -10273,7 +10272,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>965</v>
       </c>
@@ -10293,7 +10292,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>966</v>
       </c>
@@ -10313,7 +10312,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>967</v>
       </c>
@@ -10333,7 +10332,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>968</v>
       </c>
@@ -10353,7 +10352,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>969</v>
       </c>
@@ -10373,7 +10372,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>970</v>
       </c>
@@ -10393,7 +10392,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>971</v>
       </c>
@@ -10413,7 +10412,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>972</v>
       </c>
@@ -10433,7 +10432,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>973</v>
       </c>
@@ -10453,7 +10452,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>974</v>
       </c>
@@ -10473,7 +10472,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>975</v>
       </c>
@@ -10493,7 +10492,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>976</v>
       </c>
@@ -10513,7 +10512,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>977</v>
       </c>
@@ -10533,7 +10532,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>978</v>
       </c>
@@ -10553,7 +10552,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>979</v>
       </c>
@@ -10573,7 +10572,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>980</v>
       </c>
@@ -10593,7 +10592,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>981</v>
       </c>
@@ -10613,7 +10612,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>982</v>
       </c>
@@ -10633,7 +10632,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>983</v>
       </c>
@@ -10653,7 +10652,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>984</v>
       </c>
@@ -10673,7 +10672,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>985</v>
       </c>
@@ -10693,7 +10692,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>986</v>
       </c>
@@ -10713,7 +10712,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>987</v>
       </c>
@@ -10733,7 +10732,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>988</v>
       </c>
@@ -10753,7 +10752,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>989</v>
       </c>
@@ -10773,7 +10772,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>990</v>
       </c>
@@ -10793,7 +10792,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>991</v>
       </c>
@@ -10813,7 +10812,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>992</v>
       </c>
@@ -10833,7 +10832,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>993</v>
       </c>
@@ -10853,7 +10852,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>994</v>
       </c>
@@ -10873,7 +10872,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>995</v>
       </c>
@@ -10893,7 +10892,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>996</v>
       </c>
@@ -10913,7 +10912,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>997</v>
       </c>
@@ -10933,7 +10932,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>998</v>
       </c>
@@ -10953,7 +10952,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>999</v>
       </c>
@@ -10973,7 +10972,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>1000</v>
       </c>
@@ -10993,7 +10992,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>1001</v>
       </c>
@@ -11013,7 +11012,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>1002</v>
       </c>
@@ -11033,7 +11032,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>1003</v>
       </c>
@@ -11053,7 +11052,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>1004</v>
       </c>
@@ -11073,7 +11072,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>1005</v>
       </c>
@@ -11093,7 +11092,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>1006</v>
       </c>
@@ -11113,7 +11112,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>1007</v>
       </c>
@@ -11133,7 +11132,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>1008</v>
       </c>
@@ -11153,7 +11152,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>1009</v>
       </c>
@@ -11173,7 +11172,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>1010</v>
       </c>
@@ -11193,7 +11192,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>1011</v>
       </c>
@@ -11213,7 +11212,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>1012</v>
       </c>
@@ -11233,7 +11232,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>1013</v>
       </c>
@@ -11253,7 +11252,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>1014</v>
       </c>
@@ -11273,7 +11272,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>1015</v>
       </c>
@@ -11293,7 +11292,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>1016</v>
       </c>
@@ -11313,7 +11312,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>1017</v>
       </c>
@@ -11333,7 +11332,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>1018</v>
       </c>
@@ -11353,7 +11352,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>1019</v>
       </c>
@@ -11373,7 +11372,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>1020</v>
       </c>
@@ -11393,7 +11392,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>1021</v>
       </c>
@@ -11413,7 +11412,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>1022</v>
       </c>
@@ -11433,7 +11432,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>1023</v>
       </c>
@@ -11453,7 +11452,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>1024</v>
       </c>
@@ -11473,7 +11472,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>1025</v>
       </c>
@@ -11493,7 +11492,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>1026</v>
       </c>
@@ -11513,7 +11512,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>1027</v>
       </c>
@@ -11533,7 +11532,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>1028</v>
       </c>
@@ -11553,7 +11552,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>1029</v>
       </c>
@@ -11573,7 +11572,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>1030</v>
       </c>
@@ -11593,7 +11592,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>1031</v>
       </c>
@@ -11613,7 +11612,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>1032</v>
       </c>
@@ -11633,7 +11632,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>1033</v>
       </c>
@@ -11653,7 +11652,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>1034</v>
       </c>
@@ -11673,7 +11672,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>1035</v>
       </c>
@@ -11693,7 +11692,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="156" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>1036</v>
       </c>
@@ -11713,7 +11712,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="157" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>1037</v>
       </c>
@@ -11733,7 +11732,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="158" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>1038</v>
       </c>
@@ -11753,7 +11752,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>1039</v>
       </c>
@@ -11773,7 +11772,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>1040</v>
       </c>
@@ -11793,7 +11792,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="161" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>1041</v>
       </c>
@@ -11813,7 +11812,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>1042</v>
       </c>
@@ -11833,7 +11832,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>1043</v>
       </c>
@@ -11853,7 +11852,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>1044</v>
       </c>
@@ -11873,7 +11872,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>1045</v>
       </c>
@@ -11893,7 +11892,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>1046</v>
       </c>
@@ -11913,7 +11912,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>1047</v>
       </c>
@@ -11933,7 +11932,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>1048</v>
       </c>
@@ -11953,7 +11952,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>1049</v>
       </c>
@@ -11973,7 +11972,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>1050</v>
       </c>
@@ -11993,7 +11992,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="171" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>1051</v>
       </c>
@@ -12013,7 +12012,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>1052</v>
       </c>
@@ -12033,7 +12032,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="173" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>1053</v>
       </c>
@@ -12053,7 +12052,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="174" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>1054</v>
       </c>
@@ -12073,7 +12072,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="175" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>1055</v>
       </c>
@@ -12093,7 +12092,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="176" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>1056</v>
       </c>
@@ -12113,7 +12112,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="177" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>1057</v>
       </c>
@@ -12133,7 +12132,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>1058</v>
       </c>
@@ -12153,7 +12152,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="179" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>1059</v>
       </c>
@@ -12173,7 +12172,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="180" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>1060</v>
       </c>
@@ -12193,7 +12192,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="181" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>1061</v>
       </c>
@@ -12213,7 +12212,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="182" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>1062</v>
       </c>
@@ -12233,7 +12232,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="183" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>1063</v>
       </c>
@@ -12253,7 +12252,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="184" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>1064</v>
       </c>
@@ -12273,7 +12272,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="185" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>1065</v>
       </c>
@@ -12293,7 +12292,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="186" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>1066</v>
       </c>
@@ -12313,7 +12312,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="187" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>1067</v>
       </c>
@@ -12333,7 +12332,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="188" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>1068</v>
       </c>
@@ -12353,7 +12352,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="189" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>1069</v>
       </c>
@@ -12373,7 +12372,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>1070</v>
       </c>
@@ -12393,7 +12392,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="191" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>1071</v>
       </c>
@@ -12413,7 +12412,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="192" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>1072</v>
       </c>
@@ -12433,7 +12432,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="193" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>1073</v>
       </c>
@@ -12453,7 +12452,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="194" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>1074</v>
       </c>
@@ -12473,7 +12472,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="195" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>1075</v>
       </c>
@@ -12493,7 +12492,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="196" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>1076</v>
       </c>
@@ -12513,7 +12512,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="197" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>1077</v>
       </c>
@@ -12533,7 +12532,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="198" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>1078</v>
       </c>
@@ -12553,7 +12552,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="199" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>2131</v>
       </c>
@@ -12570,7 +12569,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="200" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>5697</v>
       </c>
@@ -12590,7 +12589,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="201" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>5770</v>
       </c>
@@ -12610,7 +12609,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="202" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>5771</v>
       </c>
@@ -12630,7 +12629,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="203" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>5772</v>
       </c>
@@ -12650,7 +12649,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="204" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>500708</v>
       </c>
@@ -12670,7 +12669,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="205" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>500709</v>
       </c>
@@ -12690,7 +12689,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="206" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>500710</v>
       </c>
@@ -12710,7 +12709,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="207" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>500711</v>
       </c>
@@ -12730,7 +12729,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="208" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>501101</v>
       </c>
@@ -12750,7 +12749,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="209" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>501102</v>
       </c>
@@ -12770,7 +12769,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="210" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>501115</v>
       </c>
@@ -12790,7 +12789,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="211" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>501116</v>
       </c>
@@ -12810,7 +12809,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="212" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>501777</v>
       </c>
@@ -12830,7 +12829,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="213" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>501778</v>
       </c>
@@ -12850,7 +12849,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="214" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>501779</v>
       </c>
@@ -12870,7 +12869,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="215" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>501780</v>
       </c>
@@ -12890,7 +12889,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="216" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>501781</v>
       </c>
@@ -12910,7 +12909,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="217" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>501782</v>
       </c>
@@ -12930,7 +12929,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="218" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>501783</v>
       </c>
@@ -12950,7 +12949,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="219" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>501784</v>
       </c>
@@ -12970,7 +12969,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="220" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>501785</v>
       </c>
@@ -12990,7 +12989,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="221" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>501786</v>
       </c>
@@ -13010,7 +13009,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="222" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>501787</v>
       </c>
@@ -13030,7 +13029,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="223" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>501788</v>
       </c>
@@ -13050,7 +13049,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="224" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>501789</v>
       </c>
@@ -13070,7 +13069,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="225" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>501790</v>
       </c>
@@ -13090,7 +13089,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="226" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>501791</v>
       </c>
@@ -13110,7 +13109,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="227" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>501792</v>
       </c>
@@ -13130,7 +13129,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="228" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>501793</v>
       </c>
@@ -13150,7 +13149,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="229" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>501794</v>
       </c>
@@ -13170,7 +13169,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="230" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>501795</v>
       </c>
@@ -13190,7 +13189,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="231" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>501796</v>
       </c>
@@ -13210,7 +13209,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="232" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>501797</v>
       </c>
@@ -13230,7 +13229,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="233" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>501798</v>
       </c>
@@ -13250,7 +13249,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="234" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>501799</v>
       </c>
@@ -13270,7 +13269,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="235" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>501800</v>
       </c>
@@ -13290,7 +13289,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="236" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>501801</v>
       </c>
@@ -13310,7 +13309,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="237" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>501802</v>
       </c>
@@ -13330,7 +13329,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="238" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>501803</v>
       </c>
@@ -13350,7 +13349,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="239" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>501804</v>
       </c>
@@ -13370,7 +13369,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="240" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>501805</v>
       </c>
@@ -13390,7 +13389,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="241" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>501806</v>
       </c>
@@ -13410,7 +13409,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="242" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>501807</v>
       </c>
@@ -13430,7 +13429,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="243" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>501808</v>
       </c>
@@ -13450,7 +13449,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="244" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>501809</v>
       </c>
@@ -13470,7 +13469,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="245" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>501810</v>
       </c>
@@ -13490,7 +13489,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="246" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>501811</v>
       </c>
@@ -13510,7 +13509,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="247" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>501812</v>
       </c>
@@ -13530,7 +13529,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="248" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>501813</v>
       </c>
@@ -13550,7 +13549,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="249" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>501814</v>
       </c>
@@ -13570,7 +13569,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="250" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>501815</v>
       </c>
@@ -13590,7 +13589,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="251" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>501816</v>
       </c>
@@ -13610,7 +13609,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="252" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>501817</v>
       </c>
@@ -13630,7 +13629,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="253" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>501818</v>
       </c>
@@ -13650,7 +13649,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="254" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>501819</v>
       </c>
@@ -13670,7 +13669,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="255" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>501820</v>
       </c>
@@ -13690,7 +13689,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="256" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>501821</v>
       </c>
@@ -13710,7 +13709,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="257" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>501822</v>
       </c>
@@ -13730,7 +13729,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="258" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>501823</v>
       </c>
@@ -13750,7 +13749,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="259" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>501824</v>
       </c>
@@ -13770,7 +13769,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="260" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>501825</v>
       </c>
@@ -13790,7 +13789,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="261" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>501826</v>
       </c>
@@ -13810,7 +13809,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="262" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>501827</v>
       </c>
@@ -13830,7 +13829,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="263" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>501828</v>
       </c>
@@ -13850,7 +13849,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="264" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>501829</v>
       </c>
@@ -13870,7 +13869,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="265" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>501830</v>
       </c>
@@ -13890,7 +13889,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="266" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>501831</v>
       </c>
@@ -13910,7 +13909,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="267" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>501832</v>
       </c>
@@ -13930,7 +13929,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="268" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>501833</v>
       </c>
@@ -13950,7 +13949,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="269" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>501834</v>
       </c>
@@ -13970,7 +13969,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="270" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>501835</v>
       </c>
@@ -13990,7 +13989,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="271" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>501836</v>
       </c>
@@ -14010,7 +14009,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="272" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>501837</v>
       </c>
@@ -14030,7 +14029,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="273" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>501838</v>
       </c>
@@ -14050,7 +14049,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="274" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>501839</v>
       </c>
@@ -14070,7 +14069,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="275" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>501840</v>
       </c>
@@ -14090,7 +14089,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="276" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>501841</v>
       </c>
@@ -14110,7 +14109,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="277" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>501842</v>
       </c>
@@ -14130,7 +14129,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="278" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>501843</v>
       </c>
@@ -14150,7 +14149,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="279" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>501844</v>
       </c>
@@ -14170,7 +14169,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="280" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>501845</v>
       </c>
@@ -14190,7 +14189,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="281" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>501846</v>
       </c>
@@ -14210,7 +14209,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="282" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>501847</v>
       </c>
@@ -14230,7 +14229,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="283" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>501848</v>
       </c>
@@ -14250,7 +14249,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="284" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>501849</v>
       </c>
@@ -14270,7 +14269,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="285" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>501850</v>
       </c>
@@ -14290,7 +14289,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="286" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>501851</v>
       </c>
@@ -14310,7 +14309,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="287" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>501852</v>
       </c>
@@ -14330,7 +14329,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="288" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>501853</v>
       </c>
@@ -14350,7 +14349,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="289" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>501854</v>
       </c>
@@ -14370,7 +14369,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="290" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>501855</v>
       </c>
@@ -14390,7 +14389,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="291" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>501856</v>
       </c>
@@ -14410,7 +14409,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="292" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>501857</v>
       </c>
@@ -14430,7 +14429,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="293" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>501858</v>
       </c>
@@ -14450,7 +14449,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="294" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>501859</v>
       </c>
@@ -14470,7 +14469,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="295" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>501860</v>
       </c>
@@ -14490,7 +14489,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="296" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>501861</v>
       </c>
@@ -14510,7 +14509,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="297" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>501862</v>
       </c>
@@ -14530,7 +14529,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="298" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>501863</v>
       </c>
@@ -14550,7 +14549,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="299" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>501864</v>
       </c>
@@ -14570,7 +14569,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="300" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>501865</v>
       </c>
@@ -14590,7 +14589,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="301" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>501866</v>
       </c>
@@ -14610,7 +14609,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="302" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>501867</v>
       </c>
@@ -14630,7 +14629,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="303" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>1000054</v>
       </c>
@@ -14650,7 +14649,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="304" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>1000640</v>
       </c>
@@ -14670,7 +14669,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="305" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>1000641</v>
       </c>
@@ -14690,7 +14689,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="306" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>1000642</v>
       </c>
@@ -14710,7 +14709,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="307" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>1000643</v>
       </c>
@@ -14730,7 +14729,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="308" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>1000644</v>
       </c>
@@ -14750,7 +14749,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="309" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>1000645</v>
       </c>
@@ -14770,7 +14769,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="310" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>1000646</v>
       </c>
@@ -14790,7 +14789,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="311" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>1000684</v>
       </c>
@@ -14810,7 +14809,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="312" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>1000685</v>
       </c>
@@ -14830,7 +14829,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="313" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>1000686</v>
       </c>
@@ -14850,7 +14849,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="314" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>1000687</v>
       </c>
@@ -14870,7 +14869,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="315" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>1000688</v>
       </c>
@@ -14890,7 +14889,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="316" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>1000689</v>
       </c>
@@ -14910,7 +14909,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="317" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>1000690</v>
       </c>
@@ -14930,7 +14929,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="318" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>1001083</v>
       </c>
@@ -14950,7 +14949,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="319" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>1001084</v>
       </c>
@@ -14970,7 +14969,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="320" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>1001085</v>
       </c>
@@ -14990,7 +14989,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="321" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>1001086</v>
       </c>
@@ -15010,7 +15009,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="322" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>1001087</v>
       </c>
@@ -15030,7 +15029,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="323" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>1001088</v>
       </c>
@@ -15050,7 +15049,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="324" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>1001089</v>
       </c>
@@ -15070,7 +15069,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="325" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>1001090</v>
       </c>
@@ -15090,7 +15089,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="326" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>1001091</v>
       </c>
@@ -15110,7 +15109,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="327" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>1001092</v>
       </c>
@@ -15130,7 +15129,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="328" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>1001093</v>
       </c>
@@ -15150,7 +15149,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="329" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>1001094</v>
       </c>
@@ -15170,7 +15169,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="330" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>1001095</v>
       </c>
@@ -15190,7 +15189,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="331" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>1001096</v>
       </c>
@@ -15210,7 +15209,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="332" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>1001097</v>
       </c>
@@ -15230,7 +15229,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="333" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>1001098</v>
       </c>
@@ -15250,7 +15249,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="334" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>1001099</v>
       </c>
@@ -15270,7 +15269,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="335" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>1001156</v>
       </c>
@@ -15290,7 +15289,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="336" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>1001157</v>
       </c>
@@ -15310,7 +15309,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="337" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>1001158</v>
       </c>
@@ -15330,7 +15329,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="338" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>1001159</v>
       </c>
@@ -15350,7 +15349,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="339" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>1001160</v>
       </c>
@@ -15370,7 +15369,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="340" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>1001161</v>
       </c>
@@ -15390,7 +15389,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="341" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>1001162</v>
       </c>
@@ -15410,7 +15409,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="342" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>1001163</v>
       </c>
@@ -15430,7 +15429,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="343" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>1001164</v>
       </c>
@@ -15450,7 +15449,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="344" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>1001165</v>
       </c>
@@ -15470,7 +15469,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="345" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>1001166</v>
       </c>
@@ -15490,7 +15489,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="346" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>1001167</v>
       </c>
@@ -15510,7 +15509,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="347" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>1001168</v>
       </c>
@@ -15530,7 +15529,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="348" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>1001169</v>
       </c>
@@ -15550,7 +15549,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="349" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>1001170</v>
       </c>
@@ -15570,7 +15569,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="350" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>1001171</v>
       </c>
@@ -15590,7 +15589,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="351" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>1001172</v>
       </c>
@@ -15610,7 +15609,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="352" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>1001289</v>
       </c>
@@ -15630,7 +15629,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="353" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>1001290</v>
       </c>
@@ -15650,7 +15649,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="354" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>1001291</v>
       </c>
@@ -15670,7 +15669,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="355" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>1002519</v>
       </c>
@@ -15690,7 +15689,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="356" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>1002605</v>
       </c>
@@ -15710,7 +15709,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="357" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>1002606</v>
       </c>
@@ -15730,7 +15729,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="358" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>1002607</v>
       </c>
@@ -15750,7 +15749,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="359" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>1002608</v>
       </c>
@@ -15770,7 +15769,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="360" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>1002609</v>
       </c>
@@ -15790,7 +15789,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="361" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>1002610</v>
       </c>
@@ -15810,7 +15809,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="362" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>1002611</v>
       </c>
@@ -15830,7 +15829,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="363" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>1002612</v>
       </c>
@@ -15850,7 +15849,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="364" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>1002613</v>
       </c>
@@ -15870,7 +15869,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="365" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>1002614</v>
       </c>
@@ -15890,7 +15889,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="366" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>1002615</v>
       </c>
@@ -15910,7 +15909,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="367" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>1002616</v>
       </c>
@@ -15930,7 +15929,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="368" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>1002617</v>
       </c>
@@ -15950,7 +15949,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="369" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>1002618</v>
       </c>
@@ -15970,7 +15969,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="370" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>1002619</v>
       </c>
@@ -15990,7 +15989,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="371" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>1002620</v>
       </c>
@@ -16010,7 +16009,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="372" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>1002621</v>
       </c>
@@ -16030,7 +16029,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="373" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>1002622</v>
       </c>
@@ -16050,7 +16049,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="374" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>1002623</v>
       </c>
@@ -16070,7 +16069,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="375" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>1002624</v>
       </c>
@@ -16090,7 +16089,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="376" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>1002625</v>
       </c>
@@ -16110,7 +16109,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="377" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>1002626</v>
       </c>
@@ -16130,7 +16129,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="378" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>1002627</v>
       </c>
@@ -16150,7 +16149,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="379" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>1002628</v>
       </c>
@@ -16170,7 +16169,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="380" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>1002629</v>
       </c>
@@ -16190,7 +16189,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="381" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>1002630</v>
       </c>
@@ -16210,7 +16209,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="382" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>1002631</v>
       </c>
@@ -16230,7 +16229,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="383" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>1002632</v>
       </c>
@@ -16250,7 +16249,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="384" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>1002633</v>
       </c>
@@ -16270,7 +16269,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="385" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>1002634</v>
       </c>
@@ -16290,7 +16289,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="386" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>1002635</v>
       </c>
@@ -16310,7 +16309,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="387" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>1002636</v>
       </c>
@@ -16330,7 +16329,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="388" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>1002637</v>
       </c>
@@ -16350,7 +16349,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="389" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>1002638</v>
       </c>
@@ -16370,7 +16369,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="390" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>1002639</v>
       </c>
@@ -16390,7 +16389,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="391" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>1002640</v>
       </c>
@@ -16410,7 +16409,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="392" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>1002641</v>
       </c>
@@ -16430,7 +16429,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="393" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>1002642</v>
       </c>
@@ -16450,7 +16449,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="394" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>1002643</v>
       </c>
@@ -16470,7 +16469,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="395" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>1002644</v>
       </c>
@@ -16490,7 +16489,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="396" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>1002645</v>
       </c>
@@ -16510,7 +16509,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="397" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>1002646</v>
       </c>
@@ -16530,7 +16529,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="398" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>1002647</v>
       </c>
@@ -16550,7 +16549,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="399" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>1002648</v>
       </c>
@@ -16570,7 +16569,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="400" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>1002649</v>
       </c>
@@ -16590,7 +16589,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="401" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>1002650</v>
       </c>
@@ -16610,7 +16609,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="402" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>1002651</v>
       </c>
@@ -16630,7 +16629,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="403" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>1002652</v>
       </c>
@@ -16650,7 +16649,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="404" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>1002653</v>
       </c>
@@ -16670,7 +16669,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="405" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>1002654</v>
       </c>
@@ -16690,7 +16689,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="406" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>1002655</v>
       </c>
@@ -16710,7 +16709,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="407" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>1002656</v>
       </c>
@@ -16730,7 +16729,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="408" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>1002657</v>
       </c>
@@ -16750,7 +16749,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="409" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>1002658</v>
       </c>
@@ -16770,7 +16769,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="410" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>1002659</v>
       </c>
@@ -16790,7 +16789,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="411" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>1002660</v>
       </c>
@@ -16810,7 +16809,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="412" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>1002661</v>
       </c>
@@ -16830,7 +16829,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="413" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>1002662</v>
       </c>
@@ -16850,7 +16849,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="414" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>1002663</v>
       </c>
@@ -16870,7 +16869,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="415" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>1002664</v>
       </c>
@@ -16890,7 +16889,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="416" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>1002665</v>
       </c>
@@ -16910,7 +16909,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="417" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>1002666</v>
       </c>
@@ -16930,7 +16929,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="418" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>1002667</v>
       </c>
@@ -16950,7 +16949,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="419" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>1002668</v>
       </c>
@@ -16970,7 +16969,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="420" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>1002669</v>
       </c>
@@ -16990,7 +16989,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="421" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>1002670</v>
       </c>
@@ -17010,7 +17009,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="422" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>1505362</v>
       </c>
@@ -17030,7 +17029,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="423" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>1513169</v>
       </c>
@@ -17050,7 +17049,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="424" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>1513198</v>
       </c>
@@ -17070,7 +17069,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="425" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>1513199</v>
       </c>
@@ -17090,7 +17089,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="426" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>1513200</v>
       </c>
@@ -17110,7 +17109,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="427" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>1513201</v>
       </c>
@@ -17130,7 +17129,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="428" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>1513202</v>
       </c>
@@ -17150,7 +17149,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="429" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>1513203</v>
       </c>
@@ -17170,7 +17169,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="430" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>1513204</v>
       </c>
@@ -17190,7 +17189,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="431" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>1513205</v>
       </c>
@@ -17210,7 +17209,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="432" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>1513206</v>
       </c>
@@ -17230,7 +17229,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="433" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>1513207</v>
       </c>
@@ -17250,7 +17249,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="434" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>1513208</v>
       </c>
@@ -17270,7 +17269,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="435" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>1513209</v>
       </c>
@@ -17290,7 +17289,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="436" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>1513210</v>
       </c>
@@ -17310,7 +17309,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="437" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>1513211</v>
       </c>
@@ -17330,7 +17329,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="438" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>1513212</v>
       </c>
@@ -17350,7 +17349,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="439" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>1513213</v>
       </c>
@@ -17370,7 +17369,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="440" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>1513214</v>
       </c>
@@ -17390,7 +17389,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="441" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>1513215</v>
       </c>
@@ -17410,7 +17409,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="442" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>1513216</v>
       </c>
@@ -17430,7 +17429,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="443" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>1513217</v>
       </c>
@@ -17450,7 +17449,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="444" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>1513218</v>
       </c>
@@ -17470,7 +17469,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="445" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>1513219</v>
       </c>
@@ -17490,7 +17489,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="446" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>1513220</v>
       </c>
@@ -17510,7 +17509,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="447" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>1513221</v>
       </c>
@@ -17530,7 +17529,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="448" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>1513222</v>
       </c>
@@ -17550,7 +17549,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="449" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>1513223</v>
       </c>
@@ -17570,7 +17569,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="450" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>1513224</v>
       </c>
@@ -17590,7 +17589,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="451" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>1513225</v>
       </c>
@@ -17610,7 +17609,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="452" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>1513226</v>
       </c>
@@ -17630,7 +17629,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="453" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>1513227</v>
       </c>
@@ -17650,7 +17649,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="454" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>1513228</v>
       </c>
@@ -17670,7 +17669,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="455" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>1513229</v>
       </c>
@@ -17690,7 +17689,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="456" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>1513230</v>
       </c>
@@ -17710,7 +17709,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="457" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>1513231</v>
       </c>
@@ -17730,7 +17729,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="458" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>1513232</v>
       </c>
@@ -17750,7 +17749,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="459" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>1513233</v>
       </c>
@@ -17770,7 +17769,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="460" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>1513234</v>
       </c>
@@ -17790,7 +17789,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="461" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>1513235</v>
       </c>
@@ -17810,7 +17809,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="462" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>1513236</v>
       </c>
@@ -17830,7 +17829,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="463" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>1513237</v>
       </c>
@@ -17850,7 +17849,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="464" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>1513238</v>
       </c>
@@ -17870,7 +17869,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="465" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>1513239</v>
       </c>
@@ -17890,7 +17889,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="466" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>1513240</v>
       </c>
@@ -17910,7 +17909,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="467" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>1513241</v>
       </c>
@@ -17930,7 +17929,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="468" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>1513242</v>
       </c>
@@ -17950,7 +17949,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="469" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>1513243</v>
       </c>
@@ -17970,7 +17969,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="470" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>1513244</v>
       </c>
@@ -17990,7 +17989,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="471" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>1513245</v>
       </c>
@@ -18010,7 +18009,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="472" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>1513246</v>
       </c>
@@ -18030,7 +18029,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="473" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>1513247</v>
       </c>
@@ -18050,7 +18049,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="474" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>1513248</v>
       </c>
@@ -18070,7 +18069,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="475" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>1513249</v>
       </c>
@@ -18090,7 +18089,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="476" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>1513250</v>
       </c>
@@ -18110,7 +18109,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="477" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>1513251</v>
       </c>
@@ -18130,7 +18129,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="478" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>1513252</v>
       </c>
@@ -18150,7 +18149,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="479" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>1513253</v>
       </c>
@@ -18170,7 +18169,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="480" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>1513254</v>
       </c>
@@ -18190,7 +18189,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="481" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>1513255</v>
       </c>
@@ -18210,7 +18209,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="482" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>1513256</v>
       </c>
@@ -18230,7 +18229,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="483" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>1513257</v>
       </c>
@@ -18250,7 +18249,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="484" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>1513258</v>
       </c>
@@ -18270,7 +18269,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="485" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>1513259</v>
       </c>
@@ -18290,7 +18289,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="486" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>1513260</v>
       </c>
@@ -18310,7 +18309,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="487" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>1513261</v>
       </c>
@@ -18330,7 +18329,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="488" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>1513262</v>
       </c>
@@ -18350,7 +18349,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="489" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>1513263</v>
       </c>
@@ -18370,7 +18369,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="490" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>1513264</v>
       </c>
@@ -18390,7 +18389,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="491" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>1513265</v>
       </c>
@@ -18410,7 +18409,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="492" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>1513266</v>
       </c>
@@ -18430,7 +18429,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="493" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>1513267</v>
       </c>
@@ -18450,7 +18449,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="494" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>1513268</v>
       </c>
@@ -18470,7 +18469,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="495" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>1513269</v>
       </c>
@@ -18490,7 +18489,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="496" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>1513270</v>
       </c>
@@ -18510,7 +18509,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="497" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>1513271</v>
       </c>
@@ -18530,7 +18529,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="498" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>1513272</v>
       </c>
@@ -18550,7 +18549,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="499" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>1513273</v>
       </c>
@@ -18570,7 +18569,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="500" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>1513274</v>
       </c>
@@ -18590,7 +18589,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="501" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>1513275</v>
       </c>
@@ -18610,7 +18609,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="502" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>1513276</v>
       </c>
@@ -18630,7 +18629,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="503" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>1513277</v>
       </c>
@@ -18650,7 +18649,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="504" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>1513278</v>
       </c>
@@ -18670,7 +18669,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="505" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>1513279</v>
       </c>
@@ -18690,7 +18689,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="506" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>1513280</v>
       </c>
@@ -18710,7 +18709,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="507" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>1513281</v>
       </c>
@@ -18730,7 +18729,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="508" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>1513282</v>
       </c>
@@ -18750,7 +18749,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="509" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>1513283</v>
       </c>
@@ -18770,7 +18769,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="510" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>1513284</v>
       </c>
@@ -18790,7 +18789,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="511" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>1513285</v>
       </c>
@@ -18810,7 +18809,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="512" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>1513286</v>
       </c>
@@ -18830,7 +18829,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="513" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>1513287</v>
       </c>
@@ -18850,7 +18849,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="514" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>1513288</v>
       </c>
@@ -18870,7 +18869,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="515" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>1513289</v>
       </c>
@@ -18890,7 +18889,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="516" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>1513290</v>
       </c>
@@ -18910,7 +18909,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="517" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>1513291</v>
       </c>
@@ -18930,7 +18929,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="518" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>1513292</v>
       </c>
@@ -18950,7 +18949,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="519" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>1513293</v>
       </c>
@@ -18970,7 +18969,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="520" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>1513294</v>
       </c>
@@ -18990,7 +18989,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="521" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>1513295</v>
       </c>
@@ -19010,7 +19009,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="522" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>1513296</v>
       </c>
@@ -19030,7 +19029,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="523" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>1513297</v>
       </c>
@@ -19050,7 +19049,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="524" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>1513298</v>
       </c>
@@ -19070,7 +19069,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="525" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>1513299</v>
       </c>
@@ -19090,7 +19089,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="526" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>1513300</v>
       </c>
@@ -19110,7 +19109,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="527" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>1513301</v>
       </c>
@@ -19130,7 +19129,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="528" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>1513302</v>
       </c>
@@ -19150,7 +19149,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="529" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A529">
         <v>1513303</v>
       </c>
@@ -19170,7 +19169,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="530" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A530">
         <v>1513304</v>
       </c>
@@ -19190,7 +19189,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="531" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A531">
         <v>1513305</v>
       </c>
@@ -19210,7 +19209,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="532" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A532">
         <v>1513306</v>
       </c>
@@ -19230,7 +19229,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="533" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A533">
         <v>1513307</v>
       </c>
@@ -19250,7 +19249,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="534" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A534">
         <v>1513308</v>
       </c>
@@ -19270,7 +19269,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="535" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A535">
         <v>1513309</v>
       </c>
@@ -19290,7 +19289,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="536" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>1513310</v>
       </c>
@@ -19310,7 +19309,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="537" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A537">
         <v>1513311</v>
       </c>
@@ -19330,7 +19329,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="538" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A538">
         <v>1513312</v>
       </c>
@@ -19350,7 +19349,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="539" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A539">
         <v>1513313</v>
       </c>
@@ -19370,7 +19369,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="540" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A540">
         <v>1513314</v>
       </c>
@@ -19390,7 +19389,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="541" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A541">
         <v>1513315</v>
       </c>
@@ -19410,7 +19409,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="542" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A542">
         <v>1513316</v>
       </c>
@@ -19430,7 +19429,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="543" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A543">
         <v>1513317</v>
       </c>
@@ -19450,7 +19449,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="544" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A544">
         <v>1513318</v>
       </c>
@@ -19470,7 +19469,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="545" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A545">
         <v>1513319</v>
       </c>
@@ -19490,7 +19489,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="546" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A546">
         <v>1513320</v>
       </c>
@@ -19510,7 +19509,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="547" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A547">
         <v>1513321</v>
       </c>
@@ -19530,7 +19529,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="548" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A548">
         <v>1513322</v>
       </c>
@@ -19550,7 +19549,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="549" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A549">
         <v>1513323</v>
       </c>
@@ -19570,7 +19569,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="550" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A550">
         <v>1513324</v>
       </c>
@@ -19590,7 +19589,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="551" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A551">
         <v>1513325</v>
       </c>
@@ -19610,7 +19609,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="552" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A552">
         <v>1513326</v>
       </c>
@@ -19630,7 +19629,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="553" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A553">
         <v>1513327</v>
       </c>
@@ -19650,7 +19649,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="554" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A554">
         <v>1513328</v>
       </c>
@@ -19670,7 +19669,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="555" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A555">
         <v>1513329</v>
       </c>
@@ -19690,7 +19689,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="556" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A556">
         <v>1513330</v>
       </c>
@@ -19710,7 +19709,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="557" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A557">
         <v>1513331</v>
       </c>
@@ -19730,7 +19729,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="558" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A558">
         <v>1513332</v>
       </c>
@@ -19750,7 +19749,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="559" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A559">
         <v>1513333</v>
       </c>
@@ -19770,7 +19769,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="560" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A560">
         <v>1513334</v>
       </c>
@@ -19790,7 +19789,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="561" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A561">
         <v>1513335</v>
       </c>
@@ -19810,7 +19809,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="562" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A562">
         <v>1513336</v>
       </c>
@@ -19830,7 +19829,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="563" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A563">
         <v>1513337</v>
       </c>
@@ -19850,7 +19849,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="564" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A564">
         <v>1513338</v>
       </c>
@@ -19870,7 +19869,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="565" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A565">
         <v>1513339</v>
       </c>
@@ -19890,7 +19889,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="566" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A566">
         <v>1513340</v>
       </c>
@@ -19910,7 +19909,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="567" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A567">
         <v>1513341</v>
       </c>
@@ -19930,7 +19929,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="568" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A568">
         <v>1513342</v>
       </c>
@@ -19950,7 +19949,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="569" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A569">
         <v>1513343</v>
       </c>
@@ -19970,7 +19969,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="570" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A570">
         <v>1513344</v>
       </c>
@@ -19990,7 +19989,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="571" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A571">
         <v>1513345</v>
       </c>
@@ -20010,7 +20009,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="572" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A572">
         <v>1513346</v>
       </c>
@@ -20030,7 +20029,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="573" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A573">
         <v>1513347</v>
       </c>
@@ -20050,7 +20049,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="574" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A574">
         <v>1513348</v>
       </c>
@@ -20070,7 +20069,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="575" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A575">
         <v>1513349</v>
       </c>
@@ -20090,7 +20089,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="576" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A576">
         <v>1513350</v>
       </c>
@@ -20110,7 +20109,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="577" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A577">
         <v>1513351</v>
       </c>
@@ -20130,7 +20129,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="578" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A578">
         <v>1513352</v>
       </c>
@@ -20150,7 +20149,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="579" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A579">
         <v>1513353</v>
       </c>
@@ -20170,7 +20169,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="580" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A580">
         <v>1513354</v>
       </c>
@@ -20190,7 +20189,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="581" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A581">
         <v>1513355</v>
       </c>
@@ -20210,7 +20209,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="582" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A582">
         <v>1513356</v>
       </c>
@@ -20230,7 +20229,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="583" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A583">
         <v>1513357</v>
       </c>
@@ -20250,7 +20249,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="584" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A584">
         <v>1513358</v>
       </c>
@@ -20270,7 +20269,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="585" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A585">
         <v>1513359</v>
       </c>
@@ -20290,7 +20289,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="586" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A586">
         <v>1513360</v>
       </c>
@@ -20310,7 +20309,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="587" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A587">
         <v>1513361</v>
       </c>
@@ -20330,7 +20329,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="588" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A588">
         <v>1513362</v>
       </c>
@@ -20350,7 +20349,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="589" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A589">
         <v>1513363</v>
       </c>
@@ -20370,7 +20369,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="590" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A590">
         <v>1513364</v>
       </c>
@@ -20390,7 +20389,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="591" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A591">
         <v>1513365</v>
       </c>
@@ -20410,7 +20409,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="592" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A592">
         <v>1513366</v>
       </c>
@@ -20430,7 +20429,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="593" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A593">
         <v>1513367</v>
       </c>
@@ -20450,7 +20449,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="594" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A594">
         <v>1513368</v>
       </c>
@@ -20470,7 +20469,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="595" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A595">
         <v>1513369</v>
       </c>
@@ -20490,7 +20489,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="596" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A596">
         <v>1513370</v>
       </c>
@@ -20510,7 +20509,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="597" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A597">
         <v>1513371</v>
       </c>
@@ -20530,7 +20529,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="598" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A598">
         <v>1513372</v>
       </c>
@@ -20550,7 +20549,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="599" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A599">
         <v>1513373</v>
       </c>
@@ -20570,7 +20569,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="600" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A600">
         <v>1513374</v>
       </c>
@@ -20590,7 +20589,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="601" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A601">
         <v>1513375</v>
       </c>
@@ -20610,7 +20609,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="602" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A602">
         <v>1513376</v>
       </c>
@@ -20630,7 +20629,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="603" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A603">
         <v>1513377</v>
       </c>
@@ -20650,7 +20649,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="604" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A604">
         <v>1513378</v>
       </c>
@@ -20670,7 +20669,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="605" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A605">
         <v>1513379</v>
       </c>
@@ -20690,7 +20689,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="606" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A606">
         <v>1513380</v>
       </c>
@@ -20710,7 +20709,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="607" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A607">
         <v>1513381</v>
       </c>
@@ -20730,7 +20729,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="608" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A608">
         <v>1513382</v>
       </c>
@@ -20750,7 +20749,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="609" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A609">
         <v>1513383</v>
       </c>
@@ -20770,7 +20769,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="610" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A610">
         <v>1513384</v>
       </c>
@@ -20790,7 +20789,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="611" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A611">
         <v>1513385</v>
       </c>
@@ -20810,7 +20809,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="612" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A612">
         <v>1513386</v>
       </c>
@@ -20830,7 +20829,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="613" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A613">
         <v>1513387</v>
       </c>
@@ -20850,7 +20849,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="614" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A614">
         <v>1513388</v>
       </c>
@@ -20870,7 +20869,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="615" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A615">
         <v>1513389</v>
       </c>
@@ -20890,7 +20889,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="616" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A616">
         <v>1513390</v>
       </c>
@@ -20910,7 +20909,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="617" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A617">
         <v>1513391</v>
       </c>
@@ -20930,7 +20929,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="618" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A618">
         <v>1513392</v>
       </c>
@@ -20950,7 +20949,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="619" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A619">
         <v>1513393</v>
       </c>
@@ -20970,7 +20969,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="620" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A620">
         <v>1513394</v>
       </c>
@@ -20990,7 +20989,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="621" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A621">
         <v>1513395</v>
       </c>
@@ -21010,7 +21009,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="622" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A622">
         <v>1513396</v>
       </c>
@@ -21030,7 +21029,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="623" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A623">
         <v>1513397</v>
       </c>
@@ -21050,7 +21049,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="624" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A624">
         <v>1513398</v>
       </c>
@@ -21070,7 +21069,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="625" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A625">
         <v>1513399</v>
       </c>
@@ -21090,7 +21089,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="626" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A626">
         <v>1513400</v>
       </c>
@@ -21110,7 +21109,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="627" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A627">
         <v>1513401</v>
       </c>
@@ -21130,7 +21129,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="628" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A628">
         <v>1513402</v>
       </c>
@@ -21150,7 +21149,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="629" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A629">
         <v>1513403</v>
       </c>
@@ -21170,7 +21169,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="630" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A630">
         <v>1513404</v>
       </c>
@@ -21190,7 +21189,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="631" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A631">
         <v>1513405</v>
       </c>
@@ -21210,7 +21209,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="632" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A632">
         <v>1513406</v>
       </c>
@@ -21230,7 +21229,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="633" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A633">
         <v>1513407</v>
       </c>
@@ -21250,7 +21249,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="634" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A634">
         <v>1513408</v>
       </c>
@@ -21270,7 +21269,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="635" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A635">
         <v>1513409</v>
       </c>
@@ -21290,7 +21289,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="636" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A636">
         <v>1513410</v>
       </c>
@@ -21310,7 +21309,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="637" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A637">
         <v>1513411</v>
       </c>
@@ -21330,7 +21329,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="638" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A638">
         <v>1513412</v>
       </c>
@@ -21350,7 +21349,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="639" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A639">
         <v>1513413</v>
       </c>
@@ -21370,7 +21369,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="640" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A640">
         <v>1513414</v>
       </c>
@@ -21390,7 +21389,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="641" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A641">
         <v>1513415</v>
       </c>
@@ -21410,7 +21409,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="642" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A642">
         <v>1513416</v>
       </c>
@@ -21430,7 +21429,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="643" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A643">
         <v>1513417</v>
       </c>
@@ -21450,7 +21449,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="644" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A644">
         <v>1513418</v>
       </c>
@@ -21470,7 +21469,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="645" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A645">
         <v>1513419</v>
       </c>
@@ -21490,7 +21489,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="646" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A646">
         <v>1513420</v>
       </c>
@@ -21510,7 +21509,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="647" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A647">
         <v>1513421</v>
       </c>
@@ -21530,7 +21529,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="648" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A648">
         <v>1513422</v>
       </c>
@@ -21550,7 +21549,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="649" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A649">
         <v>1513423</v>
       </c>
@@ -21570,7 +21569,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="650" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A650">
         <v>1513424</v>
       </c>
@@ -21590,7 +21589,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="651" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A651">
         <v>1513425</v>
       </c>
@@ -21610,7 +21609,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="652" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A652">
         <v>1513426</v>
       </c>
@@ -21630,7 +21629,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="653" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A653">
         <v>1513427</v>
       </c>
@@ -21650,7 +21649,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="654" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A654">
         <v>1513428</v>
       </c>
@@ -21670,7 +21669,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="655" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A655">
         <v>1513429</v>
       </c>
@@ -21690,7 +21689,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="656" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A656">
         <v>1513430</v>
       </c>
@@ -21710,7 +21709,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="657" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A657">
         <v>1513431</v>
       </c>
@@ -21730,7 +21729,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="658" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A658">
         <v>1513432</v>
       </c>
@@ -21750,7 +21749,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="659" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A659">
         <v>1513433</v>
       </c>
@@ -21770,7 +21769,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="660" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A660">
         <v>1513434</v>
       </c>
@@ -21790,7 +21789,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="661" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A661">
         <v>1513435</v>
       </c>
@@ -21810,7 +21809,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="662" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A662">
         <v>1513436</v>
       </c>
@@ -21830,7 +21829,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="663" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A663">
         <v>1513437</v>
       </c>
@@ -21850,7 +21849,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="664" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A664">
         <v>1513438</v>
       </c>
@@ -21870,7 +21869,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="665" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A665">
         <v>1513439</v>
       </c>
@@ -21890,7 +21889,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="666" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A666">
         <v>1513440</v>
       </c>
@@ -21910,7 +21909,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="667" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A667">
         <v>1513441</v>
       </c>
@@ -21930,7 +21929,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="668" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A668">
         <v>1513442</v>
       </c>
@@ -21950,7 +21949,7 @@
         <v>1506</v>
       </c>
     </row>
-    <row r="669" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A669">
         <v>1513443</v>
       </c>
@@ -21970,7 +21969,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="670" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A670">
         <v>1513444</v>
       </c>
@@ -21990,7 +21989,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="671" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A671">
         <v>1513445</v>
       </c>
@@ -22010,7 +22009,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="672" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A672">
         <v>1513446</v>
       </c>
@@ -22030,7 +22029,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="673" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A673">
         <v>1513447</v>
       </c>
@@ -22050,7 +22049,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="674" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
         <v>1519</v>
       </c>
@@ -22070,7 +22069,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="675" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A675">
         <v>1513449</v>
       </c>
@@ -22090,7 +22089,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="676" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A676">
         <v>1513450</v>
       </c>
@@ -22110,7 +22109,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="677" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A677">
         <v>1513451</v>
       </c>
@@ -22130,7 +22129,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="678" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A678">
         <v>1513452</v>
       </c>
@@ -22150,7 +22149,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="679" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A679">
         <v>1513453</v>
       </c>
@@ -22170,7 +22169,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="680" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A680">
         <v>1513454</v>
       </c>
@@ -22190,7 +22189,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="681" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A681">
         <v>1513455</v>
       </c>
@@ -22210,7 +22209,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="682" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A682">
         <v>1513456</v>
       </c>
@@ -22230,7 +22229,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="683" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A683">
         <v>1513457</v>
       </c>
@@ -22250,7 +22249,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="684" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A684">
         <v>1513458</v>
       </c>
@@ -22270,7 +22269,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="685" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A685">
         <v>1513459</v>
       </c>
@@ -22290,7 +22289,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="686" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A686">
         <v>1513460</v>
       </c>
@@ -22310,7 +22309,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="687" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A687">
         <v>1513461</v>
       </c>
@@ -22330,7 +22329,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="688" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A688">
         <v>1513462</v>
       </c>
@@ -22350,7 +22349,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="689" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A689">
         <v>1513463</v>
       </c>
@@ -22370,7 +22369,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="690" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A690">
         <v>1513464</v>
       </c>
@@ -22390,7 +22389,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="691" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A691">
         <v>1513465</v>
       </c>
@@ -22410,7 +22409,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="692" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A692">
         <v>1513466</v>
       </c>
@@ -22430,7 +22429,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="693" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A693">
         <v>1513467</v>
       </c>
@@ -22450,7 +22449,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="694" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A694">
         <v>1513468</v>
       </c>
@@ -22470,7 +22469,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="695" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A695">
         <v>1513469</v>
       </c>
@@ -22490,7 +22489,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="696" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A696">
         <v>1513470</v>
       </c>
@@ -22510,7 +22509,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="697" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A697">
         <v>1513471</v>
       </c>
@@ -22530,7 +22529,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="698" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A698">
         <v>1513472</v>
       </c>
@@ -22550,7 +22549,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="699" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A699">
         <v>1513473</v>
       </c>
@@ -22570,7 +22569,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="700" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A700">
         <v>1513474</v>
       </c>
@@ -22590,7 +22589,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="701" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A701">
         <v>1513475</v>
       </c>
@@ -22610,7 +22609,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="702" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A702">
         <v>1513476</v>
       </c>
@@ -22630,7 +22629,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="703" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A703">
         <v>1513477</v>
       </c>
@@ -22650,7 +22649,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="704" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A704">
         <v>1513478</v>
       </c>
@@ -22670,7 +22669,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="705" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A705">
         <v>1513479</v>
       </c>
@@ -22690,7 +22689,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="706" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A706">
         <v>1513480</v>
       </c>
@@ -22710,7 +22709,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="707" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A707">
         <v>1513481</v>
       </c>
@@ -22730,7 +22729,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="708" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A708">
         <v>1513482</v>
       </c>
@@ -22750,7 +22749,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="709" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A709">
         <v>1513483</v>
       </c>
@@ -22770,7 +22769,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="710" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A710">
         <v>1513484</v>
       </c>
@@ -22790,7 +22789,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="711" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A711">
         <v>1513485</v>
       </c>
@@ -22810,7 +22809,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="712" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A712">
         <v>1513486</v>
       </c>
@@ -22830,7 +22829,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="713" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A713">
         <v>1513487</v>
       </c>
@@ -22850,7 +22849,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="714" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A714">
         <v>1513488</v>
       </c>
@@ -22870,7 +22869,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="715" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A715">
         <v>1513489</v>
       </c>
@@ -22890,7 +22889,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="716" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A716">
         <v>1513490</v>
       </c>
@@ -22910,7 +22909,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="717" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A717">
         <v>1513491</v>
       </c>
@@ -22930,7 +22929,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="718" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A718">
         <v>1513492</v>
       </c>
@@ -22950,7 +22949,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="719" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A719">
         <v>1513493</v>
       </c>
@@ -22970,7 +22969,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="720" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A720">
         <v>1513494</v>
       </c>
@@ -22990,7 +22989,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="721" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A721">
         <v>1513495</v>
       </c>
@@ -23010,7 +23009,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="722" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A722">
         <v>1513496</v>
       </c>
@@ -23030,7 +23029,7 @@
         <v>1627</v>
       </c>
     </row>
-    <row r="723" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A723">
         <v>1513497</v>
       </c>
@@ -23050,7 +23049,7 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="724" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A724">
         <v>1513498</v>
       </c>
@@ -23070,7 +23069,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="725" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A725">
         <v>1513499</v>
       </c>
@@ -23090,7 +23089,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="726" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A726">
         <v>1513500</v>
       </c>
@@ -23110,7 +23109,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="727" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A727">
         <v>1513501</v>
       </c>
@@ -23130,7 +23129,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="728" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A728">
         <v>1513502</v>
       </c>
@@ -23150,7 +23149,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="729" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A729">
         <v>1513503</v>
       </c>
@@ -23170,7 +23169,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="730" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A730">
         <v>1513504</v>
       </c>
@@ -23190,7 +23189,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="731" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A731">
         <v>1513505</v>
       </c>
@@ -23210,7 +23209,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="732" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A732">
         <v>1513506</v>
       </c>
@@ -23230,7 +23229,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="733" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A733">
         <v>1513507</v>
       </c>
@@ -23250,7 +23249,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="734" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A734">
         <v>1513508</v>
       </c>
@@ -23270,7 +23269,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="735" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A735">
         <v>1513509</v>
       </c>
@@ -23290,7 +23289,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="736" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A736">
         <v>1513510</v>
       </c>
@@ -23310,7 +23309,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="737" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A737">
         <v>1513511</v>
       </c>
@@ -23330,7 +23329,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="738" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A738">
         <v>1513512</v>
       </c>
@@ -23350,7 +23349,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="739" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A739">
         <v>1513513</v>
       </c>
@@ -23370,7 +23369,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="740" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A740">
         <v>1513514</v>
       </c>
@@ -23390,7 +23389,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="741" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A741">
         <v>1513515</v>
       </c>
@@ -23410,7 +23409,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="742" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A742">
         <v>1513516</v>
       </c>
@@ -23430,7 +23429,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="743" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A743">
         <v>1513517</v>
       </c>
@@ -23450,7 +23449,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="744" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A744">
         <v>1513518</v>
       </c>
@@ -23470,7 +23469,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="745" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A745">
         <v>1513519</v>
       </c>
@@ -23490,7 +23489,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="746" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A746">
         <v>1513520</v>
       </c>
@@ -23510,7 +23509,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="747" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A747">
         <v>1513521</v>
       </c>
@@ -23530,7 +23529,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="748" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A748">
         <v>1513522</v>
       </c>
@@ -23550,7 +23549,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="749" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A749">
         <v>1513523</v>
       </c>
@@ -23570,7 +23569,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="750" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A750">
         <v>1513524</v>
       </c>
@@ -23590,7 +23589,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="751" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A751">
         <v>1513525</v>
       </c>
@@ -23610,7 +23609,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="752" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A752">
         <v>1513526</v>
       </c>
@@ -23630,7 +23629,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="753" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A753">
         <v>1513527</v>
       </c>
@@ -23650,7 +23649,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="754" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A754">
         <v>1513528</v>
       </c>
@@ -23670,7 +23669,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="755" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A755">
         <v>1513529</v>
       </c>
@@ -23690,7 +23689,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="756" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A756">
         <v>1513530</v>
       </c>
@@ -23710,7 +23709,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="757" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A757">
         <v>1513531</v>
       </c>
@@ -23730,7 +23729,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="758" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A758">
         <v>1513532</v>
       </c>
@@ -23750,7 +23749,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="759" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A759">
         <v>1513533</v>
       </c>
@@ -23770,7 +23769,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="760" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A760">
         <v>1513534</v>
       </c>
@@ -23790,7 +23789,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="761" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A761">
         <v>1513535</v>
       </c>
@@ -23810,7 +23809,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="762" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A762">
         <v>1513536</v>
       </c>
@@ -23830,7 +23829,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="763" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A763">
         <v>1513537</v>
       </c>
@@ -23850,7 +23849,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="764" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A764">
         <v>1513538</v>
       </c>
@@ -23870,7 +23869,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="765" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A765">
         <v>1513539</v>
       </c>
@@ -23890,7 +23889,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="766" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A766">
         <v>1513540</v>
       </c>
@@ -23910,7 +23909,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="767" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A767">
         <v>1513541</v>
       </c>
@@ -23930,7 +23929,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="768" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A768">
         <v>1513542</v>
       </c>
@@ -23950,7 +23949,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="769" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A769">
         <v>1513543</v>
       </c>
@@ -23970,7 +23969,7 @@
         <v>1739</v>
       </c>
     </row>
-    <row r="770" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A770">
         <v>1513544</v>
       </c>
@@ -23990,7 +23989,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="771" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A771">
         <v>1513545</v>
       </c>
@@ -24010,7 +24009,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="772" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A772">
         <v>1513546</v>
       </c>
@@ -24030,7 +24029,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="773" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A773">
         <v>1513547</v>
       </c>
@@ -24050,7 +24049,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="774" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A774">
         <v>1513548</v>
       </c>
@@ -24070,7 +24069,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="775" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A775">
         <v>1513549</v>
       </c>
@@ -24090,7 +24089,7 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="776" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A776">
         <v>1513550</v>
       </c>
@@ -24110,7 +24109,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="777" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A777">
         <v>1513551</v>
       </c>
@@ -24130,7 +24129,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="778" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A778">
         <v>1513552</v>
       </c>
@@ -24150,7 +24149,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="779" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A779">
         <v>1513553</v>
       </c>
@@ -24170,7 +24169,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="780" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A780">
         <v>1513554</v>
       </c>
@@ -24190,7 +24189,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="781" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A781">
         <v>1513555</v>
       </c>
@@ -24210,7 +24209,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="782" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A782">
         <v>1513556</v>
       </c>
@@ -24230,7 +24229,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="783" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A783">
         <v>1513557</v>
       </c>
@@ -24250,7 +24249,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="784" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A784">
         <v>1513558</v>
       </c>
@@ -24270,7 +24269,7 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="785" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A785">
         <v>1513559</v>
       </c>
@@ -24290,7 +24289,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="786" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A786">
         <v>1513560</v>
       </c>
@@ -24310,7 +24309,7 @@
         <v>1790</v>
       </c>
     </row>
-    <row r="787" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A787">
         <v>1513561</v>
       </c>
@@ -24330,7 +24329,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="788" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A788">
         <v>1513562</v>
       </c>
@@ -24350,7 +24349,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="789" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A789">
         <v>1513563</v>
       </c>
@@ -24370,7 +24369,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="790" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A790">
         <v>1513564</v>
       </c>
@@ -24390,7 +24389,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="791" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A791">
         <v>1513565</v>
       </c>
@@ -24410,7 +24409,7 @@
         <v>1805</v>
       </c>
     </row>
-    <row r="792" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A792">
         <v>1513566</v>
       </c>
@@ -24430,7 +24429,7 @@
         <v>1808</v>
       </c>
     </row>
-    <row r="793" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A793">
         <v>1513567</v>
       </c>
@@ -24450,7 +24449,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="794" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A794">
         <v>1513568</v>
       </c>
@@ -24470,7 +24469,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="795" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A795">
         <v>1513569</v>
       </c>
@@ -24490,7 +24489,7 @@
         <v>1817</v>
       </c>
     </row>
-    <row r="796" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A796">
         <v>1513570</v>
       </c>
@@ -24510,7 +24509,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="797" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A797">
         <v>1513571</v>
       </c>
@@ -24530,7 +24529,7 @@
         <v>1823</v>
       </c>
     </row>
-    <row r="798" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A798">
         <v>1513572</v>
       </c>
@@ -24550,7 +24549,7 @@
         <v>1826</v>
       </c>
     </row>
-    <row r="799" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A799">
         <v>1513573</v>
       </c>
@@ -24570,7 +24569,7 @@
         <v>1829</v>
       </c>
     </row>
-    <row r="800" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A800">
         <v>1513574</v>
       </c>
@@ -24590,7 +24589,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="801" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A801">
         <v>1513575</v>
       </c>
@@ -24610,7 +24609,7 @@
         <v>1835</v>
       </c>
     </row>
-    <row r="802" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A802">
         <v>1513576</v>
       </c>
@@ -24630,7 +24629,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="803" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A803">
         <v>1513577</v>
       </c>
@@ -24650,7 +24649,7 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="804" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A804">
         <v>1513578</v>
       </c>
@@ -24670,7 +24669,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="805" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A805">
         <v>1513579</v>
       </c>
@@ -24690,7 +24689,7 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="806" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A806">
         <v>1513580</v>
       </c>
@@ -24710,7 +24709,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="807" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A807">
         <v>1513581</v>
       </c>
@@ -24730,7 +24729,7 @@
         <v>1853</v>
       </c>
     </row>
-    <row r="808" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A808">
         <v>1513582</v>
       </c>
@@ -24750,7 +24749,7 @@
         <v>1856</v>
       </c>
     </row>
-    <row r="809" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A809">
         <v>1513583</v>
       </c>
@@ -24770,7 +24769,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="810" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A810">
         <v>1513584</v>
       </c>
@@ -24790,7 +24789,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="811" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A811">
         <v>1513585</v>
       </c>
@@ -24810,7 +24809,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="812" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A812">
         <v>1513586</v>
       </c>
@@ -24830,7 +24829,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="813" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A813">
         <v>1513587</v>
       </c>
@@ -24850,7 +24849,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="814" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A814">
         <v>1513588</v>
       </c>
@@ -24870,7 +24869,7 @@
         <v>1874</v>
       </c>
     </row>
-    <row r="815" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A815">
         <v>1513589</v>
       </c>
@@ -24890,7 +24889,7 @@
         <v>1877</v>
       </c>
     </row>
-    <row r="816" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A816">
         <v>1513590</v>
       </c>
@@ -24910,7 +24909,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="817" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A817">
         <v>1513591</v>
       </c>
@@ -24930,7 +24929,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="818" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A818">
         <v>1513592</v>
       </c>
@@ -24950,7 +24949,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="819" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A819">
         <v>1513593</v>
       </c>
@@ -24970,7 +24969,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="820" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A820">
         <v>1513594</v>
       </c>
@@ -24990,7 +24989,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="821" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A821">
         <v>1513595</v>
       </c>
@@ -25010,7 +25009,7 @@
         <v>1893</v>
       </c>
     </row>
-    <row r="822" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A822">
         <v>1513596</v>
       </c>
@@ -25030,7 +25029,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="823" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A823">
         <v>1513597</v>
       </c>
@@ -25050,7 +25049,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="824" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A824">
         <v>1513598</v>
       </c>
@@ -25070,7 +25069,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="825" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A825">
         <v>1513599</v>
       </c>
@@ -25090,7 +25089,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="826" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A826">
         <v>1513600</v>
       </c>
@@ -25110,7 +25109,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="827" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A827">
         <v>1513601</v>
       </c>
@@ -25130,7 +25129,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="828" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A828">
         <v>1513602</v>
       </c>
@@ -25150,7 +25149,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="829" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A829">
         <v>1513603</v>
       </c>
@@ -25170,7 +25169,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="830" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A830">
         <v>1513604</v>
       </c>
@@ -25190,7 +25189,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="831" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A831">
         <v>1513605</v>
       </c>
@@ -25210,7 +25209,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="832" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A832">
         <v>1513606</v>
       </c>
@@ -25230,7 +25229,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="833" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A833">
         <v>1513607</v>
       </c>
@@ -25250,7 +25249,7 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="834" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A834">
         <v>1513608</v>
       </c>
@@ -25270,7 +25269,7 @@
         <v>1925</v>
       </c>
     </row>
-    <row r="835" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A835">
         <v>1513609</v>
       </c>
@@ -25290,7 +25289,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="836" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A836">
         <v>1513610</v>
       </c>
@@ -25310,7 +25309,7 @@
         <v>1930</v>
       </c>
     </row>
-    <row r="837" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A837">
         <v>1513611</v>
       </c>
@@ -25330,7 +25329,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="838" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A838">
         <v>1513612</v>
       </c>
@@ -25350,7 +25349,7 @@
         <v>1935</v>
       </c>
     </row>
-    <row r="839" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A839">
         <v>1513613</v>
       </c>
@@ -25370,7 +25369,7 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="840" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A840">
         <v>1513614</v>
       </c>
@@ -25390,7 +25389,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="841" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A841">
         <v>1513615</v>
       </c>
@@ -25410,7 +25409,7 @@
         <v>1944</v>
       </c>
     </row>
-    <row r="842" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A842">
         <v>1513616</v>
       </c>
@@ -25430,7 +25429,7 @@
         <v>1947</v>
       </c>
     </row>
-    <row r="843" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A843">
         <v>1513617</v>
       </c>
@@ -25450,7 +25449,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="844" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A844">
         <v>1513618</v>
       </c>
@@ -25470,7 +25469,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="845" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A845">
         <v>1513619</v>
       </c>
@@ -25490,7 +25489,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="846" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A846">
         <v>1513620</v>
       </c>
@@ -25510,7 +25509,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="847" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A847">
         <v>1513621</v>
       </c>
@@ -25530,7 +25529,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="848" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A848">
         <v>1513622</v>
       </c>
@@ -25550,7 +25549,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="849" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A849">
         <v>1513623</v>
       </c>
@@ -25570,7 +25569,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="850" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A850">
         <v>1513624</v>
       </c>
@@ -25590,7 +25589,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="851" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A851">
         <v>1513625</v>
       </c>
@@ -25610,7 +25609,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="852" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A852">
         <v>1513626</v>
       </c>
@@ -25630,7 +25629,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="853" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A853">
         <v>1513627</v>
       </c>
@@ -25650,7 +25649,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="854" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A854">
         <v>1513628</v>
       </c>
@@ -25670,7 +25669,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="855" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A855">
         <v>1513629</v>
       </c>
@@ -25690,7 +25689,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="856" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A856">
         <v>1513630</v>
       </c>
@@ -25710,7 +25709,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="857" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A857">
         <v>1513631</v>
       </c>
@@ -25730,7 +25729,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="858" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A858">
         <v>1513632</v>
       </c>
@@ -25750,7 +25749,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="859" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A859">
         <v>1513633</v>
       </c>
@@ -25770,7 +25769,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="860" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A860">
         <v>1513634</v>
       </c>
@@ -25790,7 +25789,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="861" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A861">
         <v>1513635</v>
       </c>
@@ -25810,7 +25809,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="862" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A862">
         <v>1513636</v>
       </c>
@@ -25830,7 +25829,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="863" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A863">
         <v>1513637</v>
       </c>
@@ -25850,7 +25849,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="864" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A864">
         <v>1513638</v>
       </c>
@@ -25870,7 +25869,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="865" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A865">
         <v>1513639</v>
       </c>
@@ -25890,7 +25889,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="866" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A866">
         <v>1513640</v>
       </c>
@@ -25910,7 +25909,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="867" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A867">
         <v>1513641</v>
       </c>
@@ -25930,7 +25929,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="868" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A868">
         <v>1513642</v>
       </c>
@@ -25950,7 +25949,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="869" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A869">
         <v>1513643</v>
       </c>
@@ -25970,7 +25969,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="870" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A870">
         <v>1513644</v>
       </c>
@@ -25990,7 +25989,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="871" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A871">
         <v>1513645</v>
       </c>
@@ -26010,7 +26009,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="872" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A872">
         <v>1513646</v>
       </c>
@@ -26030,7 +26029,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="873" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A873">
         <v>1513647</v>
       </c>
@@ -26050,7 +26049,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="874" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A874">
         <v>2000564</v>
       </c>
@@ -26070,7 +26069,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="875" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A875">
         <v>2000565</v>
       </c>
@@ -26090,7 +26089,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="876" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A876">
         <v>2000566</v>
       </c>
@@ -26110,7 +26109,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="877" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A877">
         <v>2000567</v>
       </c>
@@ -26130,7 +26129,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="878" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A878">
         <v>2000568</v>
       </c>
@@ -26150,7 +26149,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="879" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A879">
         <v>2000569</v>
       </c>
@@ -26170,7 +26169,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="880" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A880">
         <v>2000570</v>
       </c>
@@ -26190,7 +26189,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="881" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A881">
         <v>2000571</v>
       </c>
@@ -26210,7 +26209,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="882" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A882">
         <v>2000572</v>
       </c>
@@ -26230,7 +26229,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="883" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A883">
         <v>2000573</v>
       </c>
@@ -26250,7 +26249,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="884" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A884">
         <v>2000574</v>
       </c>
@@ -26270,7 +26269,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="885" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A885">
         <v>2000575</v>
       </c>
@@ -26290,7 +26289,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="886" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A886">
         <v>2000576</v>
       </c>
@@ -26310,7 +26309,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="887" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A887">
         <v>2000577</v>
       </c>
@@ -26330,7 +26329,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="888" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A888">
         <v>2000578</v>
       </c>
@@ -26350,7 +26349,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="889" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A889">
         <v>2000579</v>
       </c>
@@ -26370,7 +26369,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="890" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A890">
         <v>2000580</v>
       </c>
@@ -26390,7 +26389,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="891" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A891">
         <v>2000581</v>
       </c>
@@ -26410,7 +26409,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="892" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A892">
         <v>2000582</v>
       </c>
@@ -26430,7 +26429,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="893" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A893">
         <v>2000583</v>
       </c>
@@ -26450,7 +26449,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="894" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A894">
         <v>2000584</v>
       </c>
@@ -26470,7 +26469,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="895" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A895">
         <v>2000585</v>
       </c>
@@ -26490,7 +26489,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="896" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A896">
         <v>2000586</v>
       </c>
@@ -26510,7 +26509,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="897" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A897">
         <v>2000587</v>
       </c>
@@ -26530,7 +26529,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="898" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A898">
         <v>2000588</v>
       </c>
@@ -26550,7 +26549,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="899" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A899">
         <v>2000589</v>
       </c>
@@ -26570,7 +26569,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="900" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A900">
         <v>2000590</v>
       </c>
@@ -26590,7 +26589,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="901" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A901">
         <v>2000591</v>
       </c>
@@ -26610,7 +26609,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="902" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A902">
         <v>2000592</v>
       </c>
@@ -26630,7 +26629,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="903" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A903">
         <v>2000593</v>
       </c>
@@ -26650,7 +26649,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="904" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A904">
         <v>2000594</v>
       </c>
@@ -26670,7 +26669,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="905" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A905">
         <v>2000595</v>
       </c>
@@ -26690,7 +26689,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="906" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A906">
         <v>2000596</v>
       </c>
@@ -26710,7 +26709,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="907" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A907">
         <v>2001411</v>
       </c>
@@ -26730,7 +26729,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="908" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A908">
         <v>2001535</v>
       </c>
@@ -26750,7 +26749,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="909" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A909">
         <v>2001536</v>
       </c>
@@ -26770,7 +26769,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="910" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A910">
         <v>2001537</v>
       </c>
@@ -26790,7 +26789,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="911" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A911">
         <v>2001538</v>
       </c>
@@ -26810,7 +26809,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="912" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A912">
         <v>2001539</v>
       </c>
@@ -26830,7 +26829,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="913" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A913">
         <v>2001540</v>
       </c>
@@ -26850,7 +26849,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="914" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A914">
         <v>2001541</v>
       </c>
@@ -26870,7 +26869,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="915" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A915">
         <v>2001542</v>
       </c>
@@ -26890,7 +26889,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="916" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A916">
         <v>2001543</v>
       </c>
@@ -26910,7 +26909,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="917" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A917">
         <v>2001544</v>
       </c>
@@ -26930,7 +26929,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="918" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A918">
         <v>2001545</v>
       </c>
@@ -26950,7 +26949,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="919" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A919">
         <v>2001546</v>
       </c>
@@ -26970,7 +26969,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="920" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A920">
         <v>2001547</v>
       </c>
@@ -26990,7 +26989,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="921" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A921">
         <v>2001548</v>
       </c>
@@ -27010,7 +27009,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="922" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A922">
         <v>2001549</v>
       </c>
@@ -27030,7 +27029,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="923" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A923">
         <v>2001550</v>
       </c>
@@ -27050,7 +27049,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="924" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A924">
         <v>2001551</v>
       </c>
@@ -27070,7 +27069,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="925" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A925">
         <v>2001552</v>
       </c>
@@ -27090,7 +27089,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="926" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A926">
         <v>2001646</v>
       </c>
@@ -27110,7 +27109,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="927" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A927">
         <v>2001647</v>
       </c>
@@ -27130,7 +27129,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="928" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A928">
         <v>2001648</v>
       </c>
@@ -27150,7 +27149,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="929" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A929">
         <v>2001649</v>
       </c>
@@ -27170,7 +27169,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="930" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A930">
         <v>2001650</v>
       </c>
@@ -27190,7 +27189,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="931" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A931">
         <v>2001651</v>
       </c>
@@ -27210,7 +27209,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="932" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A932">
         <v>2001652</v>
       </c>
@@ -27230,7 +27229,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="933" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A933">
         <v>2001653</v>
       </c>
@@ -27250,7 +27249,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="934" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A934">
         <v>2001654</v>
       </c>
@@ -27270,7 +27269,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="935" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A935">
         <v>2001655</v>
       </c>
@@ -27290,7 +27289,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="936" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A936">
         <v>2001656</v>
       </c>
@@ -27310,7 +27309,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="937" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A937">
         <v>2001657</v>
       </c>
@@ -27330,7 +27329,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="938" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A938">
         <v>2001658</v>
       </c>
@@ -27350,7 +27349,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="939" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A939">
         <v>2001659</v>
       </c>
@@ -27370,7 +27369,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="940" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A940">
         <v>2001660</v>
       </c>
@@ -27390,7 +27389,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="941" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A941">
         <v>2001661</v>
       </c>
@@ -27410,7 +27409,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="942" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A942">
         <v>2001662</v>
       </c>
@@ -27430,7 +27429,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="943" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A943">
         <v>2001663</v>
       </c>
@@ -27450,7 +27449,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="944" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A944">
         <v>2001664</v>
       </c>
@@ -27470,7 +27469,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="945" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A945">
         <v>2001665</v>
       </c>
@@ -27490,7 +27489,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="946" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A946">
         <v>2001666</v>
       </c>
@@ -27510,7 +27509,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="947" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A947">
         <v>2001667</v>
       </c>
@@ -27530,7 +27529,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="948" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A948">
         <v>2001668</v>
       </c>
@@ -27550,7 +27549,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="949" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A949">
         <v>2001669</v>
       </c>
@@ -27570,7 +27569,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="950" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A950">
         <v>2001670</v>
       </c>
@@ -27590,7 +27589,7 @@
         <v>2215</v>
       </c>
     </row>
-    <row r="951" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A951">
         <v>2001671</v>
       </c>
@@ -27610,7 +27609,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="952" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A952">
         <v>2001672</v>
       </c>
@@ -27630,7 +27629,7 @@
         <v>2222</v>
       </c>
     </row>
-    <row r="953" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A953">
         <v>2001673</v>
       </c>
@@ -27650,7 +27649,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="954" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A954">
         <v>2001674</v>
       </c>
@@ -27670,7 +27669,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="955" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A955">
         <v>2001675</v>
       </c>
@@ -27690,7 +27689,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="956" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A956">
         <v>2001676</v>
       </c>
@@ -27710,7 +27709,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="957" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A957">
         <v>2001677</v>
       </c>
@@ -27730,7 +27729,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="958" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A958">
         <v>2001678</v>
       </c>
@@ -27750,7 +27749,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="959" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A959">
         <v>2001679</v>
       </c>
@@ -27770,7 +27769,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="960" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A960">
         <v>2001680</v>
       </c>
@@ -27787,7 +27786,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="961" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A961">
         <v>2001681</v>
       </c>
@@ -27804,7 +27803,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="962" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A962">
         <v>2001682</v>
       </c>
@@ -27821,7 +27820,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="963" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A963">
         <v>2001683</v>
       </c>
@@ -27838,7 +27837,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="964" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A964">
         <v>2001684</v>
       </c>
@@ -27855,7 +27854,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="965" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A965">
         <v>2001685</v>
       </c>
@@ -27872,7 +27871,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="966" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A966">
         <v>2001686</v>
       </c>
@@ -27889,7 +27888,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="967" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A967">
         <v>2001687</v>
       </c>
@@ -27906,7 +27905,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="968" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A968">
         <v>2001688</v>
       </c>
@@ -27923,7 +27922,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="969" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A969">
         <v>2001689</v>
       </c>
@@ -27940,7 +27939,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="970" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A970">
         <v>2001690</v>
       </c>
@@ -27957,7 +27956,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="971" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A971">
         <v>2001691</v>
       </c>
@@ -27974,7 +27973,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="972" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A972">
         <v>2001692</v>
       </c>
@@ -27991,7 +27990,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="973" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A973">
         <v>2001693</v>
       </c>
@@ -28008,7 +28007,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="974" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A974">
         <v>2001694</v>
       </c>
@@ -28025,7 +28024,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="975" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A975">
         <v>2001695</v>
       </c>
@@ -28042,7 +28041,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="976" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A976">
         <v>2001696</v>
       </c>
@@ -28059,7 +28058,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="977" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A977">
         <v>2001697</v>
       </c>
@@ -28076,7 +28075,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="978" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A978">
         <v>2001698</v>
       </c>
@@ -28093,7 +28092,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="979" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A979">
         <v>2001699</v>
       </c>
@@ -28110,7 +28109,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="980" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A980">
         <v>2001700</v>
       </c>
@@ -28127,7 +28126,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="981" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A981">
         <v>2001701</v>
       </c>
@@ -28144,7 +28143,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="982" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A982">
         <v>2001702</v>
       </c>
@@ -28161,7 +28160,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="983" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A983">
         <v>2001703</v>
       </c>
@@ -28178,7 +28177,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="984" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A984">
         <v>2001704</v>
       </c>
@@ -28195,7 +28194,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="985" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A985">
         <v>2001705</v>
       </c>
@@ -28212,7 +28211,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="986" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A986">
         <v>2001706</v>
       </c>
@@ -28229,7 +28228,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="987" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A987">
         <v>2001707</v>
       </c>
@@ -28246,7 +28245,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="988" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A988">
         <v>2001708</v>
       </c>
@@ -28263,7 +28262,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="989" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A989">
         <v>2001709</v>
       </c>
@@ -28280,7 +28279,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="990" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A990">
         <v>2001710</v>
       </c>
@@ -28297,7 +28296,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="991" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A991">
         <v>2001711</v>
       </c>
@@ -28314,7 +28313,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="992" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A992">
         <v>2001712</v>
       </c>
@@ -28331,7 +28330,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="993" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A993">
         <v>2001713</v>
       </c>
@@ -28348,7 +28347,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="994" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A994">
         <v>2001714</v>
       </c>
@@ -28365,7 +28364,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="995" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A995">
         <v>2001715</v>
       </c>
@@ -28385,7 +28384,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="996" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A996">
         <v>2001716</v>
       </c>
@@ -28405,7 +28404,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="997" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A997">
         <v>2001717</v>
       </c>
@@ -28425,7 +28424,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="998" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A998">
         <v>2001718</v>
       </c>
@@ -28445,7 +28444,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="999" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A999">
         <v>2001719</v>
       </c>
@@ -28465,7 +28464,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1000" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1000">
         <v>2001720</v>
       </c>
@@ -28485,7 +28484,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1001" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1001">
         <v>2001721</v>
       </c>
@@ -28505,7 +28504,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1002" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1002" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1002">
         <v>2001722</v>
       </c>
@@ -28525,7 +28524,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1003" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1003" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1003">
         <v>2001723</v>
       </c>
@@ -28545,7 +28544,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1004" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1004" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1004">
         <v>2001724</v>
       </c>
@@ -28565,7 +28564,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1005" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1005" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1005">
         <v>2001725</v>
       </c>
@@ -28585,7 +28584,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1006" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1006" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1006">
         <v>2001726</v>
       </c>
@@ -28605,7 +28604,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1007" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1007" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1007">
         <v>2001727</v>
       </c>
@@ -28625,7 +28624,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1008" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1008" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1008">
         <v>2001728</v>
       </c>
@@ -28645,7 +28644,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1009" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1009" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1009">
         <v>2001729</v>
       </c>
@@ -28665,7 +28664,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1010" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1010" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1010">
         <v>2001730</v>
       </c>
@@ -28685,7 +28684,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1011" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1011" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1011">
         <v>2001731</v>
       </c>
@@ -28705,7 +28704,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1012" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1012" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1012">
         <v>2001732</v>
       </c>
@@ -28725,7 +28724,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1013" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1013" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1013">
         <v>2001733</v>
       </c>
@@ -28745,7 +28744,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1014" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1014" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1014">
         <v>2001734</v>
       </c>
@@ -28765,7 +28764,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1015" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1015" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1015">
         <v>2001735</v>
       </c>
@@ -28785,7 +28784,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1016" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="1016" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1016">
         <v>2001736</v>
       </c>
@@ -28805,7 +28804,7 @@
         <v>2375</v>
       </c>
     </row>
-    <row r="1017" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1017" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1017">
         <v>2001737</v>
       </c>
@@ -28825,7 +28824,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1018" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1018" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1018">
         <v>2001738</v>
       </c>
@@ -28845,7 +28844,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1019" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1019" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1019">
         <v>2001739</v>
       </c>
@@ -28865,7 +28864,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1020" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1020" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1020">
         <v>2001740</v>
       </c>
@@ -28885,7 +28884,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1021" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1021" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1021">
         <v>2001741</v>
       </c>
@@ -28905,7 +28904,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1022" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1022" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1022">
         <v>2001742</v>
       </c>
@@ -28925,7 +28924,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1023" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1023" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1023">
         <v>2001743</v>
       </c>
@@ -28945,7 +28944,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1024" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1024" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1024">
         <v>2001744</v>
       </c>
@@ -28965,7 +28964,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1025" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1025" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1025">
         <v>2001745</v>
       </c>
@@ -28985,7 +28984,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1026" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1026" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1026">
         <v>2001746</v>
       </c>
@@ -29005,7 +29004,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1027" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1027" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1027">
         <v>2001747</v>
       </c>
@@ -29025,7 +29024,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1028" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1028" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1028">
         <v>2001748</v>
       </c>
@@ -29045,7 +29044,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1029" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1029" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1029">
         <v>2001749</v>
       </c>
@@ -29065,7 +29064,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1030" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1030" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1030">
         <v>2001750</v>
       </c>
@@ -29085,7 +29084,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1031" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="1031" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1031">
         <v>2001751</v>
       </c>
@@ -29105,7 +29104,7 @@
         <v>2421</v>
       </c>
     </row>
-    <row r="1032" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1032" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1032">
         <v>2001752</v>
       </c>
@@ -29125,7 +29124,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1033" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1033" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1033">
         <v>2001753</v>
       </c>
@@ -29145,7 +29144,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1034" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1034" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1034">
         <v>2001754</v>
       </c>
@@ -29165,7 +29164,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1035" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1035" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1035">
         <v>2001755</v>
       </c>
@@ -29185,7 +29184,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1036" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1036" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1036">
         <v>2001756</v>
       </c>
@@ -29205,7 +29204,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1037" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1037" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1037">
         <v>2001757</v>
       </c>
@@ -29225,7 +29224,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1038" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1038" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1038">
         <v>2001758</v>
       </c>
@@ -29245,7 +29244,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1039" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1039" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1039">
         <v>2001759</v>
       </c>
@@ -29265,7 +29264,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1040" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1040" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1040">
         <v>2001760</v>
       </c>
@@ -29285,7 +29284,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1041" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1041" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1041">
         <v>2001761</v>
       </c>
@@ -29305,7 +29304,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1042" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1042" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1042">
         <v>2001762</v>
       </c>
@@ -29325,7 +29324,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1043" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1043" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1043">
         <v>2001763</v>
       </c>
@@ -29345,7 +29344,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1044" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1044" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1044">
         <v>2001764</v>
       </c>
@@ -29365,7 +29364,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1045" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1045" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1045">
         <v>2001765</v>
       </c>
@@ -29385,7 +29384,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1046" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1046" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1046">
         <v>2001766</v>
       </c>
@@ -29405,7 +29404,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1047" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1047" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1047">
         <v>2001767</v>
       </c>
@@ -29425,7 +29424,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1048" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1048" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1048">
         <v>2001768</v>
       </c>
@@ -29445,7 +29444,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1049" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1049" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1049">
         <v>2001769</v>
       </c>
@@ -29465,7 +29464,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1050" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1050" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1050">
         <v>2001770</v>
       </c>
@@ -29485,7 +29484,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1051" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1051" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1051">
         <v>2001771</v>
       </c>
@@ -29505,7 +29504,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1052" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1052" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1052">
         <v>2001772</v>
       </c>
@@ -29525,7 +29524,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1053" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1053" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1053">
         <v>2001773</v>
       </c>
@@ -29545,7 +29544,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1054" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1054" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1054">
         <v>2001774</v>
       </c>
@@ -29565,7 +29564,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1055" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1055" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1055">
         <v>2001775</v>
       </c>
@@ -29585,7 +29584,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1056" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1056" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1056">
         <v>2001776</v>
       </c>
@@ -29605,7 +29604,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1057" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1057" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1057">
         <v>2001777</v>
       </c>
@@ -29625,7 +29624,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1058" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1058" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1058">
         <v>2001778</v>
       </c>
@@ -29645,7 +29644,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1059" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1059" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1059">
         <v>2001779</v>
       </c>
@@ -29665,7 +29664,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1060" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1060" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1060">
         <v>2001780</v>
       </c>
@@ -29685,7 +29684,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1061" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1061" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1061">
         <v>2001781</v>
       </c>
@@ -29705,7 +29704,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1062" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1062" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1062">
         <v>2001782</v>
       </c>
@@ -29725,7 +29724,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1063" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1063" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1063">
         <v>2001783</v>
       </c>
@@ -29745,7 +29744,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1064" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1064" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1064">
         <v>2001784</v>
       </c>
@@ -29765,7 +29764,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1065" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1065" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1065">
         <v>2001785</v>
       </c>
@@ -29785,7 +29784,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1066" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1066" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1066">
         <v>2001786</v>
       </c>
@@ -29805,7 +29804,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1067" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1067" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1067">
         <v>2001787</v>
       </c>
@@ -29825,7 +29824,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1068" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1068" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1068">
         <v>2001788</v>
       </c>
@@ -29845,7 +29844,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1069" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1069" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1069">
         <v>2001789</v>
       </c>
@@ -29865,7 +29864,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1070" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1070" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1070">
         <v>2001790</v>
       </c>
@@ -29885,7 +29884,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1071" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1071" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1071">
         <v>2001791</v>
       </c>
@@ -29905,7 +29904,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1072" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1072" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1072">
         <v>2001792</v>
       </c>
@@ -29925,7 +29924,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1073" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1073" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1073">
         <v>2001793</v>
       </c>
@@ -29945,7 +29944,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1074" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1074" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1074">
         <v>2001794</v>
       </c>
@@ -29965,7 +29964,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1075" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1075" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1075">
         <v>2001795</v>
       </c>
@@ -29985,7 +29984,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1076" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1076" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1076">
         <v>2001796</v>
       </c>
@@ -30005,7 +30004,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1077" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1077" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1077">
         <v>2001797</v>
       </c>
@@ -30025,7 +30024,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1078" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1078" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1078">
         <v>2001798</v>
       </c>
@@ -30045,7 +30044,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1079" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1079" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1079">
         <v>2001799</v>
       </c>
@@ -30065,7 +30064,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1080" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1080" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1080">
         <v>2001800</v>
       </c>
@@ -30085,7 +30084,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1081" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1081" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1081">
         <v>2001801</v>
       </c>
@@ -30105,7 +30104,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1082" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1082" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1082">
         <v>2001802</v>
       </c>
@@ -30125,7 +30124,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1083" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1083" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1083">
         <v>2001803</v>
       </c>
@@ -30145,7 +30144,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1084" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1084" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1084">
         <v>2001804</v>
       </c>
@@ -30165,7 +30164,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1085" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="1085" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1085">
         <v>2001805</v>
       </c>
@@ -30185,7 +30184,7 @@
         <v>2579</v>
       </c>
     </row>
-    <row r="1086" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1086" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1086">
         <v>2001806</v>
       </c>
@@ -30205,7 +30204,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1087" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1087" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1087">
         <v>2001807</v>
       </c>
@@ -30225,7 +30224,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1088" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1088" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1088">
         <v>2001808</v>
       </c>
@@ -30245,7 +30244,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1089" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1089" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1089">
         <v>2001809</v>
       </c>
@@ -30265,7 +30264,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1090" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1090" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1090">
         <v>2001810</v>
       </c>
@@ -30285,7 +30284,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1091" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1091" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1091">
         <v>2001811</v>
       </c>
@@ -30305,7 +30304,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1092" spans="1:6" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1092" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1092">
         <v>2001812</v>
       </c>
@@ -30326,13 +30325,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1092" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="5">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
